--- a/210927뉴스스크랩.xlsx
+++ b/210927뉴스스크랩.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr showObjects="none" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDB\Documents\대외협력팀\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,12 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전자뉴스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라우다이크, 25억 규모 시리즈A 투자유치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>서울경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍용차 인수 도전장 강영권 대표 "2025년 30만대 생산체계 갖춰 흑자 전환"</t>
   </si>
   <si>
     <t>국민일보</t>
@@ -78,11 +77,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t># 투자에는 산업은행과 신용보증, 싱가포르 소재의 가디언펀드가 참여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 산업은행 벤처기술금융실 관계자, “클라우다이크, 해외기업 중심의 국내 클라우드 스토리지 시장에서 두각을 나타내는 기업. 우수한 기술력과 성장잠재력을 바탕으로 국내 데이터 주권 확보에 기여할 것”</t>
+    <t># 인수 금액은 말 그대로 과거의 채무를 감당하기 위한 것”이라며 “추가로 8,000억 원을 조달해 쌍용차를 회생시키고 에디슨모터스의 지분 매각 등으로 5,000억 원을 더 조달할 수 있다”고 자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 산업은행의 지원이 있으면 좋겠지만 그 부분은 (자금 계획에서) 염두에 두고 있지 않다는 입장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 과거 쌍용그룹·상하이자동차·마힌드라 등이 쌍용차를 인수해 대규모 자금을 투입했지만 결국 실패했다”며 자금력보다 기술력 강조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 전기차로의 전환이 이뤄지면 이러한 기술력 격차를 해소할 수 있다는 입장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,10 +121,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t># 아시아나항공이 지금은 화물 사업으로 이익을 내고 있지만 현상 유지에 불과. 만약 아시아나가 흔들리게 되면 국민 세금을 더 투입해야 될 테고, 대한항공도 구조조정을 더 해야할 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"># 최악의 경우 양사 M&amp;A가 불발되고 아시아나항공이 파산한다면 한진해운 사태가 재현될 것이란 경고도 나옴. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t># 아시아나항공의 재무 상황이 더 나빠지면 구조조정이 뒤따를 수밖에 없고, 아예 파산하는 경우 모든 임직원이 일자리를 잃게 됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t># 최동선 산은 기업금융실장, 지난 16일 양사 합병 관련 토론회에서 “대한항공이 통합 후 고용을 유지하지 않으면 5000억원의 위약금이 청구된다”며 “조 회장과 한진칼에 대해서는 손해배상이 청구되고, 조 회장은 경영진에서 물러나야 한다”고 언급.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t># 한국전력이 인도네시아 자바에 짓고 있는 석탄 화력발전소, 운영은 한국전력이, 건설은 두산중공업이, 금융지원은 산업은행, 수출입은행, 하나은행이 참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t># 정부는 다음달 1일부터 정부와 지자체, 공공기관이 하는 모든 해외석탄 투자를 중단하겠다고 밝힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,31 +165,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t># 평가 결과, 금감원이 81.3점으로 가장 낮음. 신용보증기금이 89.7점으로 가장 높았고, 이어 예보(87.9점) 산업은행(87.0점) 주택금융공사(85.9점) 캠코(85.3점) 등의 순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부 공적자금‥"해외 석탄발전에 투자 안 해"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t># 금융권이 지난 5년간 예금보험료, 감독분담금으로 부담한 금액이 10조원을 넘어섬.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 평가 결과, 금감원이 81.3점으로 가장 낮음. 신용보증기금이 89.7점으로 가장 높았고, 이어 예보(87.9점) 산업은행(87.0점) 주택금융공사(85.9점) 캠코(85.3점) 등의 순</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정부 공적자금‥"해외 석탄발전에 투자 안 해"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"># 클라우드 파일 공유 서비스 기업 클라우다이크가 25억원 규모 시리즈A 투자유치 완료. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 한국전력이 인도네시아 자바에 짓고 있는 석탄 화력발전소 금융지원에 산업은행, 수출입은행, 하나은행이 참여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 조원태 한진그룹 회장, 우기홍 대한항공 사장, 통합 후 인위적 구조조정 없을 것이라 강조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 아시아나항공이 지금은 화물 사업으로 이익을 내고 있지만 현상 유지에 불과. 만약 아시아나가 흔들리게 되면 국민 세금을 더 투입해야 될 테고, 구조조정이 뒤따를 뿐만 아니라 아예 파산하는 경우 모든 임직원이 일자리 잃게 됨. 대한항공도 구조조정을 더 해야할 것.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +228,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -254,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +300,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -594,57 +619,55 @@
         <v>44463</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D4" s="6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
         <v>44463</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="5" t="s">
-        <v>28</v>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -652,152 +675,167 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>44464</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="2"/>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D17" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D18" s="6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C20" s="2"/>
-      <c r="D20" s="6" t="s">
-        <v>23</v>
+      <c r="A20" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C21" s="10"/>
       <c r="D21" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="10"/>
       <c r="D22" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="1">
+      <c r="D23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>44465</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D25" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D26" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D27" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D28" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E39" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="1"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C44" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D46" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D29" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C50" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="1"/>
-      <c r="C55" s="5"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E55" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="1"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="1"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="1"/>
+      <c r="C71" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
